--- a/list.xlsx
+++ b/list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="212">
   <si>
     <t>Name</t>
   </si>
@@ -33,36 +33,399 @@
     <t>aaron4george@gmail.com</t>
   </si>
   <si>
+    <t>Aaron Sequeira</t>
+  </si>
+  <si>
+    <t>Crypt, Credit, Charge</t>
+  </si>
+  <si>
+    <t>aaron191999@gmail.com</t>
+  </si>
+  <si>
+    <t>Aastha Chowdhary</t>
+  </si>
+  <si>
+    <t>Crypt, Create</t>
+  </si>
+  <si>
+    <t>aasthac67@gmail.com</t>
+  </si>
+  <si>
+    <t>Abhijith P A</t>
+  </si>
+  <si>
+    <t>Abhived Nair</t>
+  </si>
+  <si>
+    <t>Credit, Chronicle, Clutch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhivedsnair@gmail.com </t>
+  </si>
+  <si>
+    <t>Aditya J Karia</t>
+  </si>
+  <si>
+    <t>Aditya Jain</t>
+  </si>
+  <si>
     <t>Crypt</t>
   </si>
   <si>
+    <t>aditya.jainadityajain.jain@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditya Manjunath</t>
+  </si>
+  <si>
     <t>Charge</t>
   </si>
   <si>
+    <t>aditya.manjunathsj@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditya Rastogi</t>
+  </si>
+  <si>
+    <t>Crypt, Chronicle</t>
+  </si>
+  <si>
+    <t>adit.rastogi2014@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditya Satpute</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>satputeaditya9@gmail.com</t>
+  </si>
+  <si>
+    <t>Aman Kureel</t>
+  </si>
+  <si>
+    <t>kureel.aman@gmail.com</t>
+  </si>
+  <si>
+    <t>Amith Vijayan</t>
+  </si>
+  <si>
+    <t>Create, Concrete</t>
+  </si>
+  <si>
+    <t>amithv37@gmail.com</t>
+  </si>
+  <si>
+    <t>Amodh Shenoy</t>
+  </si>
+  <si>
+    <t>amodhshenoy@gmail.com</t>
+  </si>
+  <si>
+    <t>Anchit Goel</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>anchitgoel28@gmail.com</t>
+  </si>
+  <si>
+    <t>Animesh Kumar</t>
+  </si>
+  <si>
+    <t>Ankit Karody</t>
+  </si>
+  <si>
+    <t>Chronicle, Crypt</t>
+  </si>
+  <si>
+    <t>ankit.karody@gmail.com</t>
+  </si>
+  <si>
+    <t>Anmol Verma</t>
+  </si>
+  <si>
+    <t>anmoghverma1998@gmail.com</t>
+  </si>
+  <si>
+    <t>Arpitha Yoga</t>
+  </si>
+  <si>
+    <t>arpithayoga98@gmail.com</t>
+  </si>
+  <si>
+    <t>Ashutosh Samal</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>ashutosh06.samal@gmail.com</t>
+  </si>
+  <si>
+    <t>Ayush Arun Singh</t>
+  </si>
+  <si>
+    <t>ayusharunsingh13@gmail.com</t>
+  </si>
+  <si>
+    <t>Bikram Sarkar</t>
+  </si>
+  <si>
+    <t>Clutch</t>
+  </si>
+  <si>
+    <t>bikramsarkar.198@gmail.com</t>
+  </si>
+  <si>
+    <t>Devanshu Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> charge</t>
+  </si>
+  <si>
+    <t>devanshu2201@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhanush R G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete </t>
+  </si>
+  <si>
+    <t>dhanush.giriyan@gmail.com</t>
+  </si>
+  <si>
+    <t>Ishan Mathew</t>
+  </si>
+  <si>
+    <t>ishanofficialacc@gmail.com</t>
+  </si>
+  <si>
+    <t>Manan Poddar</t>
+  </si>
+  <si>
+    <t>crypt</t>
+  </si>
+  <si>
+    <t>mananpoddarm@gmail.com</t>
+  </si>
+  <si>
+    <t>Mrutyunjay Kalyani</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrutyunjaykalyani2731@gmail.com </t>
+  </si>
+  <si>
+    <t>N Sainath Rakesh</t>
+  </si>
+  <si>
+    <t>Navami S Prabhu</t>
+  </si>
+  <si>
+    <t>navami.prabhu11@gmail.com</t>
+  </si>
+  <si>
+    <t>Nikhil Nair</t>
+  </si>
+  <si>
+    <t>niknair31898@gmail.com</t>
+  </si>
+  <si>
+    <t>Nikhil Varghese</t>
+  </si>
+  <si>
+    <t>Clutch, Chronicle, Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nikhil.varghese37@gmail.com </t>
+  </si>
+  <si>
+    <t>Niveditha Pradeep</t>
+  </si>
+  <si>
+    <t>talktonivedithapradeep@gmail.com</t>
+  </si>
+  <si>
+    <t>Prabhansh Pandey</t>
+  </si>
+  <si>
+    <t>prabhanshpandey20@gmail.com</t>
+  </si>
+  <si>
+    <t>pranav srinath</t>
+  </si>
+  <si>
+    <t>pranavsrinath26@gmail.com</t>
+  </si>
+  <si>
+    <t>Praveen Maiya</t>
+  </si>
+  <si>
+    <t>Priyesh Gandhi</t>
+  </si>
+  <si>
+    <t>R Aswin</t>
+  </si>
+  <si>
+    <t>Clutch, Chronicle</t>
+  </si>
+  <si>
+    <t>aswin.ramanathan5@gmail.com</t>
+  </si>
+  <si>
+    <t>Raahul Ravichander</t>
+  </si>
+  <si>
+    <t>raahul.ravichander@gmail.com</t>
+  </si>
+  <si>
+    <t>Rakesh N R</t>
+  </si>
+  <si>
+    <t>Clutch, Credit</t>
+  </si>
+  <si>
+    <t>nrrakesh913@gmail.com</t>
+  </si>
+  <si>
+    <t>Rashmi Raj</t>
+  </si>
+  <si>
+    <t>concrete, credit</t>
+  </si>
+  <si>
+    <t>rashmi6654@gmail.com</t>
+  </si>
+  <si>
+    <t>Rohan Garg</t>
+  </si>
+  <si>
+    <t>Charge, Chronicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohank.garg@gmail.com </t>
+  </si>
+  <si>
+    <t>Rohan Yatgiri</t>
+  </si>
+  <si>
+    <t>Sachin Doddamani</t>
+  </si>
+  <si>
+    <t>Sahana Shanbhag</t>
+  </si>
+  <si>
+    <t>Chronicle,Charge</t>
+  </si>
+  <si>
+    <t>shanbhag.sahana1@gmail.com</t>
+  </si>
+  <si>
+    <t>Saurabh Kaushik</t>
+  </si>
+  <si>
+    <t>saurabh99kota@gmail.com</t>
+  </si>
+  <si>
+    <t>Satwik Arya</t>
+  </si>
+  <si>
+    <t>satwikshivparwati@gmail.com</t>
+  </si>
+  <si>
+    <t>Shishir Volety</t>
+  </si>
+  <si>
+    <t>credit, Concrete</t>
+  </si>
+  <si>
+    <t>shishir.volety99@gmail.com</t>
+  </si>
+  <si>
+    <t>Shreya Raghavendra</t>
+  </si>
+  <si>
+    <t>Credit, Crypt, Charge</t>
+  </si>
+  <si>
+    <t>shreyaraghavendra@gmail.com</t>
+  </si>
+  <si>
+    <t>Sushruth V</t>
+  </si>
+  <si>
+    <t>Crypt, Credit, Chronicle</t>
+  </si>
+  <si>
+    <t>vsushruth21@gmail.com</t>
+  </si>
+  <si>
+    <t>Swarnangshu Ghosh</t>
+  </si>
+  <si>
+    <t>Concrete,Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghosh.swarnangshu@gmail.com </t>
+  </si>
+  <si>
+    <t>Thejaswini D M</t>
+  </si>
+  <si>
+    <t>thejaswini360@gmail.com</t>
+  </si>
+  <si>
+    <t>Utkarsha Suman</t>
+  </si>
+  <si>
+    <t>utkarshasuman123@gmail.com</t>
+  </si>
+  <si>
+    <t>Varghese George</t>
+  </si>
+  <si>
+    <t>vgeorge97@gmail.com</t>
+  </si>
+  <si>
+    <t>Vasudev B M</t>
+  </si>
+  <si>
+    <t>vasubm007@gmail.com</t>
+  </si>
+  <si>
+    <t>Vishakh Rao</t>
+  </si>
+  <si>
+    <t>Credit , Crypt</t>
+  </si>
+  <si>
+    <t>vishakhrao999@gmail.com</t>
+  </si>
+  <si>
+    <t>Sainath Rakesh</t>
+  </si>
+  <si>
+    <t>nsainathrakesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Prateek Sahu</t>
+  </si>
+  <si>
+    <t>prateeksahu1337@gmail.com</t>
+  </si>
+  <si>
     <t>Chronicle</t>
   </si>
   <si>
-    <t>Clutch</t>
-  </si>
-  <si>
-    <t>Aaron Sequeira</t>
-  </si>
-  <si>
-    <t>Concrete</t>
-  </si>
-  <si>
-    <t>Crypt, Credit, Charge</t>
-  </si>
-  <si>
     <t>Create</t>
   </si>
   <si>
-    <t>aaron191999@gmail.com</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
     <t>Catalyst</t>
   </si>
   <si>
@@ -72,15 +435,6 @@
     <t>Abhijeet Ghosh</t>
   </si>
   <si>
-    <t>Aastha Chowdhary</t>
-  </si>
-  <si>
-    <t>Abhijith P A</t>
-  </si>
-  <si>
-    <t>Abhived Nair</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -90,6 +444,9 @@
     <t>Akshay Kishan</t>
   </si>
   <si>
+    <t>mail.akshaykishan@gmail.com</t>
+  </si>
+  <si>
     <t>Amulya Kumar</t>
   </si>
   <si>
@@ -99,13 +456,13 @@
     <t xml:space="preserve">Adithya Iyer </t>
   </si>
   <si>
-    <t>Credit, Chronicle, Clutch</t>
+    <t>adi.s.iyer@gmail.com</t>
   </si>
   <si>
     <t>Aditi Bhat</t>
   </si>
   <si>
-    <t xml:space="preserve">Abhivedsnair@gmail.com </t>
+    <t>aithakka@gmail.com</t>
   </si>
   <si>
     <t>Amal Mohan</t>
@@ -117,12 +474,21 @@
     <t>Aneesh Dixit</t>
   </si>
   <si>
+    <t>aneeshdixit123@gmail.com</t>
+  </si>
+  <si>
     <t>Ashwin KV</t>
   </si>
   <si>
     <t>ashwink.vee@gmail.com</t>
   </si>
   <si>
+    <t>Chitransh Lodha</t>
+  </si>
+  <si>
+    <t>chitransh1998@gmail.com</t>
+  </si>
+  <si>
     <t>Darshan D V</t>
   </si>
   <si>
@@ -138,21 +504,24 @@
     <t>Divya Pentela</t>
   </si>
   <si>
+    <t>divyapentela@gmail.com</t>
+  </si>
+  <si>
     <t>Gayatri Indukumar</t>
   </si>
   <si>
     <t xml:space="preserve">ammu.gayatri@gmail.com </t>
   </si>
   <si>
-    <t>Aditya J Karia</t>
-  </si>
-  <si>
     <t>Hamra Nadeem</t>
   </si>
   <si>
     <t xml:space="preserve">Ian Jathanna </t>
   </si>
   <si>
+    <t>ianjathanna@gmail.com</t>
+  </si>
+  <si>
     <t>Joshua D Cunha</t>
   </si>
   <si>
@@ -168,6 +537,9 @@
     <t>Kevin Tom Kurian</t>
   </si>
   <si>
+    <t>Kevintomkurian@gmail.com</t>
+  </si>
+  <si>
     <t>Kshitiz Khatri</t>
   </si>
   <si>
@@ -186,13 +558,13 @@
     <t>Nabin Regmi</t>
   </si>
   <si>
-    <t>Neha D Shetty</t>
-  </si>
-  <si>
-    <t>Aditya Jain</t>
-  </si>
-  <si>
-    <t>aditya.jainadityajain.jain@gmail.com</t>
+    <t>nabinkancha17@gmail.com</t>
+  </si>
+  <si>
+    <t>Nihar Chitnis</t>
+  </si>
+  <si>
+    <t>niharchitnis@gmail.com</t>
   </si>
   <si>
     <t>Priyam Kumar</t>
@@ -204,18 +576,15 @@
     <t>Rithika Cherukat</t>
   </si>
   <si>
+    <t>rithikacherukat@gmail.com</t>
+  </si>
+  <si>
     <t>Rohith Fernando</t>
   </si>
   <si>
-    <t>Aditya Manjunath</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sai Chaitanya </t>
   </si>
   <si>
-    <t>aditya.manjunathsj@gmail.com</t>
-  </si>
-  <si>
     <t>b.saichaitanya98@gmail.com</t>
   </si>
   <si>
@@ -225,21 +594,21 @@
     <t>Sankarshan Guru</t>
   </si>
   <si>
+    <t>sankarshan.guru300@gmail.com</t>
+  </si>
+  <si>
     <t>Sarang Kalantre</t>
   </si>
   <si>
-    <t>Aditya Rastogi</t>
-  </si>
-  <si>
-    <t>Crypt, Chronicle</t>
+    <t>Shushant Kumar</t>
+  </si>
+  <si>
+    <t>shushantkmr2@gmail.com</t>
   </si>
   <si>
     <t>Siddhant Waghjale</t>
   </si>
   <si>
-    <t>adit.rastogi2014@gmail.com</t>
-  </si>
-  <si>
     <t>Siddharth Kapoor</t>
   </si>
   <si>
@@ -252,13 +621,13 @@
     <t>Sushil Vanka</t>
   </si>
   <si>
-    <t>Aditya Satpute</t>
+    <t>vankasushil@gmail.com</t>
   </si>
   <si>
     <t>Tanya Pinto</t>
   </si>
   <si>
-    <t>satputeaditya9@gmail.com</t>
+    <t>tanyapinto98@gmail.com</t>
   </si>
   <si>
     <t>Thejaswi S</t>
@@ -276,329 +645,17 @@
     <t>Vishal Sinha</t>
   </si>
   <si>
-    <t>Aman Kureel</t>
-  </si>
-  <si>
     <t>Yash V Dodeja</t>
   </si>
   <si>
-    <t>kureel.aman@gmail.com</t>
-  </si>
-  <si>
-    <t>Amith Vijayan</t>
-  </si>
-  <si>
-    <t>Create, Concrete</t>
-  </si>
-  <si>
-    <t>amithv37@gmail.com</t>
-  </si>
-  <si>
-    <t>Amodh Shenoy</t>
-  </si>
-  <si>
-    <t>amodhshenoy@gmail.com</t>
-  </si>
-  <si>
-    <t>Anchit Goel</t>
-  </si>
-  <si>
-    <t>anchitgoel28@gmail.com</t>
-  </si>
-  <si>
-    <t>Animesh Kumar</t>
-  </si>
-  <si>
-    <t>Ankit Karody</t>
-  </si>
-  <si>
-    <t>Chronicle, Crypt</t>
-  </si>
-  <si>
-    <t>ankit.karody@gmail.com</t>
-  </si>
-  <si>
-    <t>Anmol Verma</t>
-  </si>
-  <si>
-    <t>anmoghverma1998@gmail.com</t>
-  </si>
-  <si>
-    <t>Arpitha Yoga</t>
-  </si>
-  <si>
-    <t>arpithayoga98@gmail.com</t>
-  </si>
-  <si>
-    <t>Ashutosh Samal</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>ashutosh06.samal@gmail.com</t>
-  </si>
-  <si>
-    <t>Ayush Arun Singh</t>
-  </si>
-  <si>
-    <t>ayusharunsingh13@gmail.com</t>
-  </si>
-  <si>
-    <t>Bikram Sarkar</t>
-  </si>
-  <si>
-    <t>bikramsarkar.198@gmail.com</t>
-  </si>
-  <si>
-    <t>Devanshu Gupta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> charge</t>
-  </si>
-  <si>
-    <t>devanshu2201@gmail.com</t>
-  </si>
-  <si>
-    <t>Dhanush R G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concrete </t>
-  </si>
-  <si>
-    <t>dhanush.giriyan@gmail.com</t>
-  </si>
-  <si>
-    <t>Ishan Mathew</t>
-  </si>
-  <si>
-    <t>ishanofficialacc@gmail.com</t>
-  </si>
-  <si>
-    <t>Manan Poddar</t>
-  </si>
-  <si>
-    <t>crypt</t>
-  </si>
-  <si>
-    <t>mananpoddarm@gmail.com</t>
-  </si>
-  <si>
-    <t>Mrutyunjay Kalyani</t>
-  </si>
-  <si>
-    <t>clutch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrutyunjaykalyani2731@gmail.com </t>
-  </si>
-  <si>
-    <t>N Sainath Rakesh</t>
-  </si>
-  <si>
-    <t>Navami S Prabhu</t>
-  </si>
-  <si>
-    <t>navami.prabhu11@gmail.com</t>
-  </si>
-  <si>
-    <t>Nikhil Nair</t>
-  </si>
-  <si>
-    <t>Crypt, Create</t>
-  </si>
-  <si>
-    <t>niknair31898@gmail.com</t>
-  </si>
-  <si>
-    <t>Nikhil Varghese</t>
-  </si>
-  <si>
-    <t>Clutch, Chronicle, Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nikhil.varghese37@gmail.com </t>
-  </si>
-  <si>
-    <t>Niveditha Pradeep</t>
-  </si>
-  <si>
-    <t>talktonivedithapradeep@gmail.com</t>
-  </si>
-  <si>
-    <t>Prabhansh Pandey</t>
-  </si>
-  <si>
-    <t>prabhanshpandey20@gmail.com</t>
-  </si>
-  <si>
-    <t>pranav srinath</t>
-  </si>
-  <si>
-    <t>pranavsrinath26@gmail.com</t>
-  </si>
-  <si>
-    <t>Praveen Maiya</t>
-  </si>
-  <si>
-    <t>Priyesh Gandhi</t>
-  </si>
-  <si>
-    <t>R Aswin</t>
-  </si>
-  <si>
-    <t>Clutch, Chronicle</t>
-  </si>
-  <si>
-    <t>aswin.ramanathan5@gmail.com</t>
-  </si>
-  <si>
-    <t>Raahul Ravichander</t>
-  </si>
-  <si>
-    <t>raahul.ravichander@gmail.com</t>
-  </si>
-  <si>
-    <t>Rakesh N R</t>
-  </si>
-  <si>
-    <t>Clutch, Credit</t>
-  </si>
-  <si>
-    <t>nrrakesh913@gmail.com</t>
-  </si>
-  <si>
-    <t>Rashmi Raj</t>
-  </si>
-  <si>
-    <t>concrete, credit</t>
-  </si>
-  <si>
-    <t>rashmi6654@gmail.com</t>
-  </si>
-  <si>
-    <t>Rohan Garg</t>
-  </si>
-  <si>
-    <t>Charge, Chronicle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rohank.garg@gmail.com </t>
-  </si>
-  <si>
-    <t>Rohan Yatgiri</t>
-  </si>
-  <si>
-    <t>Sachin Doddamani</t>
-  </si>
-  <si>
-    <t>Sahana Shanbhag</t>
-  </si>
-  <si>
-    <t>Chronicle,Charge</t>
-  </si>
-  <si>
-    <t>shanbhag.sahana1@gmail.com</t>
-  </si>
-  <si>
-    <t>Saurabh Kaushik</t>
-  </si>
-  <si>
-    <t>saurabh99kota@gmail.com</t>
-  </si>
-  <si>
-    <t>Satwik Arya</t>
-  </si>
-  <si>
-    <t>satwikshivparwati@gmail.com</t>
-  </si>
-  <si>
-    <t>Shishir Volety</t>
-  </si>
-  <si>
-    <t>credit, Concrete</t>
-  </si>
-  <si>
-    <t>shishir.volety99@gmail.com</t>
-  </si>
-  <si>
-    <t>Shreya Raghavendra</t>
-  </si>
-  <si>
-    <t>Credit, Crypt, Charge</t>
-  </si>
-  <si>
-    <t>shreyaraghavendra@gmail.com</t>
-  </si>
-  <si>
-    <t>Sushruth V</t>
-  </si>
-  <si>
-    <t>Crypt, Credit, Chronicle</t>
-  </si>
-  <si>
-    <t>vsushruth21@gmail.com</t>
-  </si>
-  <si>
-    <t>Swarnangshu Ghosh</t>
-  </si>
-  <si>
-    <t>Concrete,Credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghosh.swarnangshu@gmail.com </t>
-  </si>
-  <si>
-    <t>Thejaswini D M</t>
-  </si>
-  <si>
-    <t>thejaswini360@gmail.com</t>
-  </si>
-  <si>
-    <t>Utkarsha Suman</t>
-  </si>
-  <si>
-    <t>utkarshasuman123@gmail.com</t>
-  </si>
-  <si>
-    <t>Varghese George</t>
-  </si>
-  <si>
-    <t>vgeorge97@gmail.com</t>
-  </si>
-  <si>
-    <t>Vasudev B M</t>
-  </si>
-  <si>
-    <t>vasubm007@gmail.com</t>
-  </si>
-  <si>
-    <t>Vishakh Rao</t>
-  </si>
-  <si>
-    <t>Credit , Crypt</t>
-  </si>
-  <si>
-    <t>vishakhrao999@gmail.com</t>
-  </si>
-  <si>
-    <t>Sainath Rakesh</t>
-  </si>
-  <si>
-    <t>nsainathrakesh@gmail.com</t>
-  </si>
-  <si>
-    <t>Prateek Sahu</t>
-  </si>
-  <si>
-    <t>prateeksahu1337@gmail.com</t>
+    <t>yashdodeja@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -609,6 +666,13 @@
       <color rgb="FF00FF00"/>
     </font>
     <font>
+      <color rgb="FF00FF00"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
     </font>
     <font>
@@ -617,11 +681,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF00FF00"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <name val="Arial"/>
+      <sz val="15.0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -644,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -656,24 +716,27 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -758,13 +821,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -791,88 +854,94 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -900,13 +969,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -934,13 +1003,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -968,13 +1037,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1002,13 +1071,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1036,13 +1105,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1070,13 +1139,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1104,13 +1173,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1138,18 +1207,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1177,13 +1246,13 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1211,13 +1280,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1245,13 +1314,13 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1279,13 +1348,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1313,13 +1382,13 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1347,13 +1416,13 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1381,13 +1450,13 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1415,13 +1484,13 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1449,13 +1518,13 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1483,13 +1552,13 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1517,18 +1586,18 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1556,13 +1625,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1590,13 +1659,13 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1624,13 +1693,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1658,13 +1727,13 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1692,13 +1761,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1726,23 +1795,23 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1770,13 +1839,13 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1804,13 +1873,13 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1838,13 +1907,13 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1872,13 +1941,13 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1906,23 +1975,23 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1950,13 +2019,13 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1984,13 +2053,13 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2018,13 +2087,13 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2052,13 +2121,13 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2086,13 +2155,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2120,13 +2189,13 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2154,13 +2223,13 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2188,13 +2257,13 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2222,13 +2291,13 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2256,13 +2325,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2290,13 +2359,13 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2324,13 +2393,13 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2358,13 +2427,13 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2401,7 +2470,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
@@ -2410,358 +2482,480 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
+      <c r="B1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
+      <c r="A2" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
+      <c r="A3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
+      <c r="A4" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
+      <c r="A5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>29</v>
+      <c r="A6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
+      <c r="A7" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>33</v>
+      <c r="A8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>34</v>
+      <c r="A9" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A10" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
+      <c r="A11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>40</v>
+      <c r="A12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
+      <c r="A13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>44</v>
+      <c r="A14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
+      <c r="A15" s="9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>22</v>
+      <c r="A16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>22</v>
+      <c r="A17" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>50</v>
+      <c r="A18" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>51</v>
+      <c r="A19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>53</v>
+      <c r="A20" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
+      <c r="A21" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>56</v>
+      <c r="A22" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>57</v>
+      <c r="A23" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>60</v>
+      <c r="A24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>61</v>
+      <c r="A25" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>62</v>
+      <c r="A26" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
-        <v>63</v>
+      <c r="A27" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>67</v>
+      <c r="A28" s="9" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
-        <v>68</v>
+      <c r="A29" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>22</v>
+      <c r="A30" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>70</v>
+      <c r="A31" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>73</v>
+      <c r="A32" s="9" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>75</v>
+      <c r="A33" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>76</v>
+      <c r="A34" s="9" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>77</v>
+      <c r="A35" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>78</v>
+      <c r="A36" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>80</v>
+      <c r="A37" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>22</v>
+      <c r="A38" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>84</v>
+      <c r="A39" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>86</v>
+      <c r="A40" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="A41" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="11"/>
+      <c r="E44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -13,11 +13,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="219">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Crypt</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Chronicle</t>
+  </si>
+  <si>
+    <t>Clutch</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Catalyst</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Abhijeet Ghosh</t>
+  </si>
+  <si>
     <t>SIGs</t>
   </si>
   <si>
@@ -27,36 +57,6 @@
     <t>Aaron Geoge</t>
   </si>
   <si>
-    <t>Crypt</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Chronicle</t>
-  </si>
-  <si>
-    <t>Clutch</t>
-  </si>
-  <si>
-    <t>Concrete</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Catalyst</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Abhijeet Ghosh</t>
-  </si>
-  <si>
     <t>Credit, Concrete</t>
   </si>
   <si>
@@ -90,9 +90,18 @@
     <t>Aditi Bhat</t>
   </si>
   <si>
+    <t>Aaron Sequeira</t>
+  </si>
+  <si>
+    <t>Crypt, Credit, Charge</t>
+  </si>
+  <si>
     <t>aithakka@gmail.com</t>
   </si>
   <si>
+    <t>aaron191999@gmail.com</t>
+  </si>
+  <si>
     <t>Amal Mohan</t>
   </si>
   <si>
@@ -105,45 +114,57 @@
     <t>aneeshdixit123@gmail.com</t>
   </si>
   <si>
+    <t>Aastha Chowdhary</t>
+  </si>
+  <si>
+    <t>Crypt, Create</t>
+  </si>
+  <si>
     <t>Ashwin KV</t>
   </si>
   <si>
+    <t>aasthac67@gmail.com</t>
+  </si>
+  <si>
     <t>ashwink.vee@gmail.com</t>
   </si>
   <si>
+    <t>Abhijith P A</t>
+  </si>
+  <si>
     <t>Chitransh Lodha</t>
   </si>
   <si>
+    <t>Abhived Nair</t>
+  </si>
+  <si>
     <t>chitransh1998@gmail.com</t>
   </si>
   <si>
     <t>Darshan D V</t>
   </si>
   <si>
-    <t>Aaron Sequeira</t>
-  </si>
-  <si>
     <t>darshandv10@gmail.com</t>
   </si>
   <si>
-    <t>Crypt, Credit, Charge</t>
-  </si>
-  <si>
     <t>Dominic Davies</t>
   </si>
   <si>
-    <t>aaron191999@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">dominicdaviesc36@gmail.com </t>
   </si>
   <si>
     <t>Divya Pentela</t>
   </si>
   <si>
+    <t>Credit, Chronicle, Clutch</t>
+  </si>
+  <si>
     <t>divyapentela@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Abhivedsnair@gmail.com </t>
+  </si>
+  <si>
     <t>Gayatri Indukumar</t>
   </si>
   <si>
@@ -153,39 +174,27 @@
     <t>Hamra Nadeem</t>
   </si>
   <si>
-    <t>Aastha Chowdhary</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ian Jathanna </t>
   </si>
   <si>
-    <t>Crypt, Create</t>
-  </si>
-  <si>
     <t>ianjathanna@gmail.com</t>
   </si>
   <si>
-    <t>aasthac67@gmail.com</t>
-  </si>
-  <si>
     <t>Joshua D Cunha</t>
   </si>
   <si>
-    <t>Abhijith P A</t>
-  </si>
-  <si>
     <t>joshdcunha99@gmail.com</t>
   </si>
   <si>
-    <t>Abhived Nair</t>
-  </si>
-  <si>
     <t>Keerthana Kamath</t>
   </si>
   <si>
     <t>keerthana.kamath73@gmail.com</t>
   </si>
   <si>
+    <t>Aditya J Karia</t>
+  </si>
+  <si>
     <t>Kevin Tom Kurian</t>
   </si>
   <si>
@@ -207,15 +216,9 @@
     <t>Mohit Bhasi</t>
   </si>
   <si>
-    <t>Credit, Chronicle, Clutch</t>
-  </si>
-  <si>
     <t>mohitbhasi1998@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Abhivedsnair@gmail.com </t>
-  </si>
-  <si>
     <t>Nabin Regmi</t>
   </si>
   <si>
@@ -228,9 +231,15 @@
     <t>niharchitnis@gmail.com</t>
   </si>
   <si>
+    <t>Aditya Jain</t>
+  </si>
+  <si>
     <t>Priyam Kumar</t>
   </si>
   <si>
+    <t>aditya.jainadityajain.jain@gmail.com</t>
+  </si>
+  <si>
     <t>crifte@gmail.com</t>
   </si>
   <si>
@@ -243,30 +252,39 @@
     <t>Rithika Cherukat</t>
   </si>
   <si>
+    <t>Aditya Manjunath</t>
+  </si>
+  <si>
     <t>rithikacherukat@gmail.com</t>
   </si>
   <si>
+    <t>aditya.manjunathsj@gmail.com</t>
+  </si>
+  <si>
     <t>Rohith Fernando</t>
   </si>
   <si>
     <t>anthonyrohithfernando@gmail.com</t>
   </si>
   <si>
-    <t>Aditya J Karia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sai Chaitanya </t>
   </si>
   <si>
     <t>b.saichaitanya98@gmail.com</t>
   </si>
   <si>
-    <t>Sanjay Nayak</t>
+    <t>Aditya Rastogi</t>
   </si>
   <si>
     <t>Sankarshan Guru</t>
   </si>
   <si>
+    <t>Crypt, Chronicle</t>
+  </si>
+  <si>
+    <t>adit.rastogi2014@gmail.com</t>
+  </si>
+  <si>
     <t>sankarshan.guru300@gmail.com</t>
   </si>
   <si>
@@ -279,114 +297,93 @@
     <t>shushantkmr2@gmail.com</t>
   </si>
   <si>
+    <t>Aditya Satpute</t>
+  </si>
+  <si>
     <t>Siddhant Waghjale</t>
   </si>
   <si>
+    <t>satputeaditya9@gmail.com</t>
+  </si>
+  <si>
+    <t>Subiksha Prakash</t>
+  </si>
+  <si>
+    <t>subi1999@gmail.com</t>
+  </si>
+  <si>
+    <t>Sujay Simha K M</t>
+  </si>
+  <si>
+    <t>Aman Kureel</t>
+  </si>
+  <si>
+    <t>sujay.simha07@gmail.com</t>
+  </si>
+  <si>
+    <t>kureel.aman@gmail.com</t>
+  </si>
+  <si>
+    <t>Sushil Vanka</t>
+  </si>
+  <si>
+    <t>vankasushil@gmail.com</t>
+  </si>
+  <si>
+    <t>Tanya Pinto</t>
+  </si>
+  <si>
+    <t>tanyapinto98@gmail.com</t>
+  </si>
+  <si>
+    <t>Thejaswi S</t>
+  </si>
+  <si>
+    <t>Amith Vijayan</t>
+  </si>
+  <si>
+    <t>Create, Concrete</t>
+  </si>
+  <si>
+    <t>amithv37@gmail.com</t>
+  </si>
+  <si>
+    <t>thejaswishekar9@gmail.com</t>
+  </si>
+  <si>
+    <t>Vasavi Udupa</t>
+  </si>
+  <si>
+    <t>vasaviudupajapthi@gmail.com</t>
+  </si>
+  <si>
+    <t>Vishal Sinha</t>
+  </si>
+  <si>
+    <t>Amodh Shenoy</t>
+  </si>
+  <si>
+    <t>sinha.v3103@gmail.com</t>
+  </si>
+  <si>
+    <t>amodhshenoy@gmail.com</t>
+  </si>
+  <si>
+    <t>Yash V Dodeja</t>
+  </si>
+  <si>
+    <t>Anchit Goel</t>
+  </si>
+  <si>
+    <t>anchitgoel28@gmail.com</t>
+  </si>
+  <si>
+    <t>yashdodeja@yahoo.com</t>
+  </si>
+  <si>
     <t>Siddharth Kapoor</t>
   </si>
   <si>
-    <t>Subiksha Prakash</t>
-  </si>
-  <si>
-    <t>subi1999@gmail.com</t>
-  </si>
-  <si>
-    <t>Aditya Jain</t>
-  </si>
-  <si>
-    <t>Sujay Simha K M</t>
-  </si>
-  <si>
-    <t>aditya.jainadityajain.jain@gmail.com</t>
-  </si>
-  <si>
-    <t>sujay.simha07@gmail.com</t>
-  </si>
-  <si>
-    <t>Sushil Vanka</t>
-  </si>
-  <si>
-    <t>vankasushil@gmail.com</t>
-  </si>
-  <si>
-    <t>Aditya Manjunath</t>
-  </si>
-  <si>
-    <t>Tanya Pinto</t>
-  </si>
-  <si>
-    <t>aditya.manjunathsj@gmail.com</t>
-  </si>
-  <si>
-    <t>tanyapinto98@gmail.com</t>
-  </si>
-  <si>
-    <t>Thejaswi S</t>
-  </si>
-  <si>
-    <t>thejaswishekar9@gmail.com</t>
-  </si>
-  <si>
-    <t>Vasavi Udupa</t>
-  </si>
-  <si>
-    <t>Aditya Rastogi</t>
-  </si>
-  <si>
-    <t>Crypt, Chronicle</t>
-  </si>
-  <si>
-    <t>adit.rastogi2014@gmail.com</t>
-  </si>
-  <si>
-    <t>vasaviudupajapthi@gmail.com</t>
-  </si>
-  <si>
-    <t>Vishal Sinha</t>
-  </si>
-  <si>
-    <t>Aditya Satpute</t>
-  </si>
-  <si>
-    <t>satputeaditya9@gmail.com</t>
-  </si>
-  <si>
-    <t>sinha.v3103@gmail.com</t>
-  </si>
-  <si>
-    <t>Yash V Dodeja</t>
-  </si>
-  <si>
-    <t>Aman Kureel</t>
-  </si>
-  <si>
-    <t>kureel.aman@gmail.com</t>
-  </si>
-  <si>
-    <t>Amith Vijayan</t>
-  </si>
-  <si>
-    <t>Create, Concrete</t>
-  </si>
-  <si>
-    <t>amithv37@gmail.com</t>
-  </si>
-  <si>
-    <t>Amodh Shenoy</t>
-  </si>
-  <si>
-    <t>amodhshenoy@gmail.com</t>
-  </si>
-  <si>
-    <t>Anchit Goel</t>
-  </si>
-  <si>
-    <t>yashdodeja@yahoo.com</t>
-  </si>
-  <si>
-    <t>anchitgoel28@gmail.com</t>
-  </si>
-  <si>
     <t>Animesh Kumar</t>
   </si>
   <si>
@@ -397,6 +394,9 @@
   </si>
   <si>
     <t>ankit.karody@gmail.com</t>
+  </si>
+  <si>
+    <t>siddharthakapoor2@gmail.com</t>
   </si>
   <si>
     <t>Anmol Verma</t>
@@ -682,17 +682,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
-    </font>
-    <font>
-      <color rgb="FF00FF00"/>
     </font>
     <font>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <color rgb="FF00FF00"/>
     </font>
     <font>
       <color rgb="FF00FF00"/>
@@ -730,10 +730,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -741,7 +741,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -754,7 +754,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -796,24 +796,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="5"/>
@@ -841,14 +841,14 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -875,30 +875,30 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
+      <c r="A5" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -926,7 +926,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -955,14 +955,14 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>94</v>
+      <c r="A8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -989,14 +989,14 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>100</v>
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1023,14 +1023,14 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>107</v>
+      <c r="A10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1057,14 +1057,14 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>111</v>
+      <c r="A11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1091,14 +1091,14 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>115</v>
+      <c r="A12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1125,14 +1125,14 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>118</v>
+      <c r="A13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1159,14 +1159,14 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>120</v>
+      <c r="A14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1193,14 +1193,14 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>123</v>
+      <c r="A15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1227,19 +1227,19 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1266,13 +1266,13 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D18" s="5"/>
@@ -1300,13 +1300,13 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D19" s="5"/>
@@ -1334,13 +1334,13 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D20" s="5"/>
@@ -1368,13 +1368,13 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="5"/>
@@ -1402,13 +1402,13 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D22" s="5"/>
@@ -1436,13 +1436,13 @@
       <c r="Z22" s="5"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D23" s="5"/>
@@ -1470,13 +1470,13 @@
       <c r="Z23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D24" s="5"/>
@@ -1504,13 +1504,13 @@
       <c r="Z24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D25" s="5"/>
@@ -1538,13 +1538,13 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D26" s="5"/>
@@ -1572,13 +1572,13 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>152</v>
       </c>
       <c r="D27" s="5"/>
@@ -1606,18 +1606,18 @@
       <c r="Z27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D29" s="5"/>
@@ -1645,13 +1645,13 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>157</v>
       </c>
       <c r="D30" s="5"/>
@@ -1679,13 +1679,13 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D31" s="5"/>
@@ -1713,13 +1713,13 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D32" s="5"/>
@@ -1747,13 +1747,13 @@
       <c r="Z32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D33" s="5"/>
@@ -1781,13 +1781,13 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D34" s="5"/>
@@ -1815,23 +1815,23 @@
       <c r="Z34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D37" s="5"/>
@@ -1859,13 +1859,13 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>173</v>
       </c>
       <c r="D38" s="5"/>
@@ -1893,13 +1893,13 @@
       <c r="Z38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D39" s="5"/>
@@ -1927,13 +1927,13 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>179</v>
       </c>
       <c r="D40" s="5"/>
@@ -1961,13 +1961,13 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D41" s="5"/>
@@ -1995,23 +1995,23 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D44" s="5"/>
@@ -2039,13 +2039,13 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>189</v>
       </c>
       <c r="D45" s="5"/>
@@ -2073,13 +2073,13 @@
       <c r="Z45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D46" s="5"/>
@@ -2107,13 +2107,13 @@
       <c r="Z46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>194</v>
       </c>
       <c r="D47" s="5"/>
@@ -2141,13 +2141,13 @@
       <c r="Z47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D48" s="5"/>
@@ -2175,13 +2175,13 @@
       <c r="Z48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D49" s="5"/>
@@ -2209,13 +2209,13 @@
       <c r="Z49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D50" s="5"/>
@@ -2243,13 +2243,13 @@
       <c r="Z50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D51" s="5"/>
@@ -2277,13 +2277,13 @@
       <c r="Z51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D52" s="5"/>
@@ -2311,13 +2311,13 @@
       <c r="Z52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D53" s="5"/>
@@ -2345,13 +2345,13 @@
       <c r="Z53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D54" s="5"/>
@@ -2379,13 +2379,13 @@
       <c r="Z54" s="5"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>214</v>
       </c>
       <c r="D55" s="5"/>
@@ -2413,13 +2413,13 @@
       <c r="Z55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D56" s="5"/>
@@ -2447,13 +2447,13 @@
       <c r="Z56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>218</v>
       </c>
       <c r="D57" s="5"/>
@@ -2480,6 +2480,11 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
+    <row r="58">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2503,540 +2508,546 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>25</v>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>29</v>
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>33</v>
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>36</v>
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>40</v>
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>44</v>
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>45</v>
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>49</v>
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>53</v>
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>56</v>
+      <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>58</v>
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>60</v>
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>62</v>
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>65</v>
+      <c r="A22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>72</v>
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>74</v>
+      <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>76</v>
+      <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>78</v>
+      <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>81</v>
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>82</v>
+      <c r="A30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>84</v>
+      <c r="A31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
+      <c r="A32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>87</v>
+      <c r="A33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
+      <c r="A34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>89</v>
+      <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>91</v>
+      <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>95</v>
+      <c r="A37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>97</v>
+      <c r="A38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>101</v>
+      <c r="A39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>103</v>
+      <c r="A40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>108</v>
+      <c r="A41" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="A42" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11"/>
-      <c r="E44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="H42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
